--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>639801.2474288823</v>
+        <v>640585.3933669112</v>
       </c>
     </row>
     <row r="7">
@@ -656,65 +658,65 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>31.1509994400877</v>
       </c>
     </row>
     <row r="3">
@@ -741,10 +743,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>129.0037164986567</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>105.3690580549763</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,73 +898,73 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E5" t="n">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +977,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1029,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V6" t="n">
+      <c r="Y6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W6" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X6" t="n">
-        <v>13.74034240511224</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>21.16030022554286</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>205.5178444382804</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>66.38439726656334</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>94.0236838614952</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1333,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1455,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>46.54968785507688</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1506,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>55.43779104954334</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1649,31 +1651,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>21.16030022554286</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1698,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>127.9620271489939</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>14.48693373137006</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="16">
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1804,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>220.8837963815379</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1941,7 +1943,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>62.13484214871502</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,56 +2092,56 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,25 +2165,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>42.86570362720532</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>85.22343841471898</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,20 +2317,20 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>232.8330857361503</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2403,16 +2405,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>110.1497834296626</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>55.87092547359759</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2457,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2515,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2558,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2631,31 +2633,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>45.0246924387623</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>136.9303145005007</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2710,64 +2712,64 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,47 +2809,47 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
     </row>
     <row r="30">
@@ -2889,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>56.17030901074568</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3126,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>63.14223173826442</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>166.4340476206154</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3202,52 +3204,52 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3354,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>69.69067537112457</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3405,10 +3407,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3442,52 +3444,52 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3545,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -3560,7 +3562,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3579,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>4.580549094716531</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3633,13 +3635,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>166.6004839263543</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3667,61 +3669,61 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>205.5178444382804</v>
@@ -3785,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.15099944008764</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3864,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>80.86228322859418</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
+        <v>186.3732331246961</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V42" t="n">
+      <c r="Y42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W42" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,64 +3988,64 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G44" t="n">
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>114.6969565630368</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4071,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>8.590354951141745</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -4110,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
         <v>16.44142755506243</v>
@@ -4331,19 +4333,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>85.87524403801982</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>265.9510956226784</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>469.413761616576</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4352,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X2" t="n">
-        <v>639.2227743377304</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="Y2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.8288664974407</v>
+        <v>480.4386961837225</v>
       </c>
       <c r="C3" t="n">
-        <v>165.3758372163137</v>
+        <v>305.9856669025954</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E3" t="n">
         <v>16.44142755506243</v>
@@ -4413,7 +4415,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
         <v>219.90409354896</v>
@@ -4434,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X3" t="n">
-        <v>715.637985778398</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="Y3" t="n">
-        <v>508.0442035175087</v>
+        <v>648.6540332037905</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
         <v>38.93586374282289</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C5" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E5" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H5" t="n">
         <v>16.44142755506243</v>
@@ -4568,49 +4570,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U5" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V5" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y5" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.19556020784815</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C6" t="n">
-        <v>17.19556020784815</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4650,10 +4652,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N6" t="n">
         <v>366.5706756325438</v>
@@ -4677,19 +4679,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V6" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W6" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X6" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="V6" t="n">
+      <c r="Y6" t="n">
         <v>406.8838132313431</v>
-      </c>
-      <c r="W6" t="n">
-        <v>199.2900309704538</v>
-      </c>
-      <c r="X6" t="n">
-        <v>185.4108972279162</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>185.4108972279162</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4805,13 +4807,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4823,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U8" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V8" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W8" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y8" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="9">
@@ -4860,16 +4862,16 @@
         <v>406.8838132313431</v>
       </c>
       <c r="C9" t="n">
-        <v>406.8838132313431</v>
+        <v>232.4307839502161</v>
       </c>
       <c r="D9" t="n">
-        <v>257.9494035700918</v>
+        <v>83.4963742889648</v>
       </c>
       <c r="E9" t="n">
-        <v>257.9494035700918</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>111.4148455969768</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
         <v>16.44142755506243</v>
@@ -4887,19 +4889,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M9" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>548.724319600695</v>
       </c>
-      <c r="N9" t="n">
-        <v>570.0333416264414</v>
-      </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4981,31 +4983,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5051,7 +5053,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>350.8860444944306</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C12" t="n">
-        <v>176.4330152133036</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D12" t="n">
-        <v>176.4330152133036</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="E12" t="n">
-        <v>17.19556020784815</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="F12" t="n">
-        <v>17.19556020784815</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="I12" t="n">
         <v>17.19556020784815</v>
@@ -5124,19 +5126,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O12" t="n">
-        <v>752.1869855945927</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5154,16 +5156,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>766.0736090162092</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>558.4798267553199</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X12" t="n">
-        <v>350.8860444944306</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y12" t="n">
-        <v>350.8860444944306</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F14" t="n">
         <v>16.44142755506243</v>
@@ -5285,7 +5287,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="T14" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="V14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="W14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="X14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="Y14" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="U14" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="V14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="W14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="X14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>418.2299308789046</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>418.2299308789046</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>418.2299308789046</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>418.2299308789046</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>418.2299308789046</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W15" t="n">
-        <v>418.2299308789046</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="X15" t="n">
-        <v>418.2299308789046</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="Y15" t="n">
-        <v>418.2299308789046</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I16" t="n">
         <v>133.2380658808762</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5571,22 +5573,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>789.6041262295092</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>640.669716568258</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>481.4322615628025</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>334.8977035896875</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>196.166878172303</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>82.7977425798823</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5598,19 +5600,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5695,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5786,16 +5788,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>501.9060370580465</v>
+        <v>587.9903182850353</v>
       </c>
       <c r="C21" t="n">
-        <v>327.4530077769195</v>
+        <v>413.5372890039083</v>
       </c>
       <c r="D21" t="n">
-        <v>178.5185981156682</v>
+        <v>413.5372890039083</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>413.5372890039083</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>267.0027310307933</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>877.9728742836473</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>877.9728742836473</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>877.9728742836473</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>877.9728742836473</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>877.9728742836473</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>877.9728742836473</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>670.1213740781145</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y21" t="n">
-        <v>670.1213740781145</v>
+        <v>756.2056553051034</v>
       </c>
     </row>
     <row r="22">
@@ -5935,13 +5937,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>304.9965798960495</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C24" t="n">
-        <v>130.5435506149225</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="D24" t="n">
-        <v>130.5435506149225</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>360.9818047568714</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>214.4472467837564</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>75.71642136637192</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y24" t="n">
-        <v>304.9965798960495</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6263,13 +6265,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>360.2295980564601</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="C27" t="n">
-        <v>360.2295980564601</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="D27" t="n">
-        <v>211.2951883952089</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E27" t="n">
-        <v>211.2951883952089</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F27" t="n">
-        <v>64.76063042209384</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,10 +6311,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>551.1568325237861</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>551.1568325237861</v>
       </c>
       <c r="V27" t="n">
-        <v>360.2295980564601</v>
+        <v>551.1568325237861</v>
       </c>
       <c r="W27" t="n">
-        <v>360.2295980564601</v>
+        <v>551.1568325237861</v>
       </c>
       <c r="X27" t="n">
-        <v>360.2295980564601</v>
+        <v>551.1568325237861</v>
       </c>
       <c r="Y27" t="n">
-        <v>360.2295980564601</v>
+        <v>551.1568325237861</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C29" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W30" t="n">
-        <v>492.3847606029253</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X30" t="n">
-        <v>284.5332603973924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,13 +6788,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>900.2771234517833</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>726.8597789024521</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>726.8597789024521</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>498.6361606388412</v>
+        <v>795.941955893853</v>
       </c>
       <c r="V33" t="n">
-        <v>263.4840524070985</v>
+        <v>560.7898476621102</v>
       </c>
       <c r="W33" t="n">
-        <v>20.03527576299844</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="X33" t="n">
-        <v>20.03527576299844</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
         <v>829.5248650203655</v>
@@ -6895,13 +6897,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6977,10 +6979,10 @@
         <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>180.7295264928365</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>180.7295264928365</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,16 +7022,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V36" t="n">
-        <v>298.4948343740486</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W36" t="n">
-        <v>55.04605772994853</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>327.2640844659515</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
         <v>829.5248650203655</v>
@@ -7135,10 +7137,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>942.6594228129348</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>23.90796037760316</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>521.1869644168632</v>
       </c>
       <c r="U39" t="n">
-        <v>259.0600686093459</v>
+        <v>521.1869644168632</v>
       </c>
       <c r="V39" t="n">
-        <v>23.90796037760316</v>
+        <v>521.1869644168632</v>
       </c>
       <c r="W39" t="n">
-        <v>23.90796037760316</v>
+        <v>521.1869644168632</v>
       </c>
       <c r="X39" t="n">
-        <v>23.90796037760316</v>
+        <v>521.1869644168632</v>
       </c>
       <c r="Y39" t="n">
-        <v>23.90796037760316</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
         <v>224.0352098159517</v>
@@ -7415,16 +7417,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7433,28 +7435,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W41" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X41" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y41" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="42">
@@ -7491,46 +7493,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>639.2227743377304</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U42" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="V42" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="W42" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="X42" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="W42" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="X42" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="Y42" t="n">
         <v>16.44142755506243</v>
@@ -7600,10 +7602,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>639.2227743377304</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C44" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7649,49 +7651,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y44" t="n">
-        <v>639.2227743377304</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>132.2969392348976</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7734,10 +7736,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N45" t="n">
-        <v>639.4279001397708</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
         <v>639.4279001397708</v>
@@ -7749,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>339.8907214957869</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V45" t="n">
-        <v>339.8907214957869</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W45" t="n">
-        <v>339.8907214957869</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="X45" t="n">
-        <v>339.8907214957869</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="Y45" t="n">
-        <v>132.2969392348976</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>290.2250192095839</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7994,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,10 +8063,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>279.489774794024</v>
@@ -8216,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>415.4335334139435</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8231,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8453,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8699,10 +8701,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
@@ -8781,13 +8783,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P12" t="n">
-        <v>204.5647025239554</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9246,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5030352242461</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>185.3423563661624</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10434,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10668,19 +10670,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,10 +10825,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,19 +11065,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>209.1446748894994</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,13 +11384,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N45" t="n">
-        <v>222.9614904056321</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22592,16 +22594,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>188.7109832972317</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>355.0869392159659</v>
       </c>
     </row>
     <row r="3">
@@ -22629,10 +22631,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>18.44134906598205</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22674,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22689,10 +22691,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>100.4039271485011</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,22 +22786,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>194.243473604315</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22835,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -22863,10 +22865,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>100.148786383304</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22917,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>192.0326427983652</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23024,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23033,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23063,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>187.8597693607025</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>17.57800512585095</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23100,19 +23102,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>91.2606831888376</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>43.31983330171543</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23343,7 +23345,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23355,7 +23357,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>42.84694499633819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23394,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>177.3627960998819</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23504,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>187.8597693607025</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23571,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23586,16 +23588,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>72.20270154582775</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>237.2080494295496</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23671,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23692,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>185.9922493601736</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23829,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>27.26179070270006</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,10 +23980,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24026,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,25 +24053,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>94.47781353600531</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.93439573792415</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,10 +24214,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>149.0972843361114</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24224,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,7 +24259,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24291,16 +24293,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>47.49529702573832</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>56.36451876289887</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24345,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24373,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>101.1175644243641</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24403,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24418,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24446,19 +24448,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,31 +24521,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>92.31882472444833</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>63.23441419432095</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,13 +24697,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24734,7 +24736,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>345.7616595229185</v>
       </c>
     </row>
     <row r="30">
@@ -24777,10 +24779,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>33.22632384066939</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>245.0643151220611</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24962,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25014,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.01560241437871</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>59.50733446035943</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25092,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>157.4457150350269</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25242,19 +25244,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>42.54476886537189</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,10 +25283,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25293,10 +25295,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25394,10 +25396,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25433,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25448,7 +25450,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25467,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>168.1279498935992</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25521,13 +25523,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>33.56424476846735</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
         <v>209.7848930768546</v>
@@ -25673,10 +25675,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>177.8690701461577</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25688,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>119.3024454662274</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>39.56814895627872</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25840,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>194.2434736043149</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.2178212748162</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>58.0115424252789</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25959,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>103.6450892853547</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -25998,13 +26000,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26074,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>441772.411304855</v>
+        <v>441772.4113048551</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>441772.411304855</v>
+        <v>441772.4113048551</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>441772.4113048551</v>
+        <v>441772.4113048553</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441772.4113048551</v>
+        <v>441772.4113048553</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441772.411304855</v>
+        <v>441772.4113048551</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465309.4280328029</v>
+        <v>465309.4280328028</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465309.4280328028</v>
+        <v>465309.4280328029</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>441772.4113048551</v>
+        <v>441772.4113048552</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>441772.4113048552</v>
+        <v>441772.4113048551</v>
       </c>
     </row>
   </sheetData>
@@ -26418,7 +26420,7 @@
         <v>8092.707817725995</v>
       </c>
       <c r="C4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="D4" t="n">
         <v>8092.707817725994</v>
@@ -26427,37 +26429,37 @@
         <v>8092.707817725995</v>
       </c>
       <c r="F4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
         <v>8092.707817725995</v>
       </c>
       <c r="P4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
     </row>
     <row r="5">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4771.317965064576</v>
+        <v>-4771.317965064598</v>
       </c>
       <c r="C6" t="n">
-        <v>64102.43861662526</v>
+        <v>64102.43861662527</v>
       </c>
       <c r="D6" t="n">
-        <v>64102.43861662525</v>
+        <v>64102.43861662529</v>
       </c>
       <c r="E6" t="n">
         <v>97730.03861662526</v>
       </c>
       <c r="F6" t="n">
-        <v>97730.03861662526</v>
+        <v>97730.03861662527</v>
       </c>
       <c r="G6" t="n">
-        <v>91690.68159122812</v>
+        <v>91690.68159122813</v>
       </c>
       <c r="H6" t="n">
         <v>101419.7245653952</v>
@@ -26543,7 +26545,7 @@
         <v>101419.7245653952</v>
       </c>
       <c r="J6" t="n">
-        <v>47647.21367518578</v>
+        <v>47647.21367518579</v>
       </c>
       <c r="K6" t="n">
         <v>101419.7245653952</v>
@@ -26558,10 +26560,10 @@
         <v>101419.7245653952</v>
       </c>
       <c r="O6" t="n">
-        <v>97730.03861662524</v>
+        <v>97730.03861662529</v>
       </c>
       <c r="P6" t="n">
-        <v>97730.03861662524</v>
+        <v>97730.03861662529</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>70.13516816460341</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34714,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>148.1480627106907</v>
@@ -34936,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>185.0873001866707</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -34951,7 +34953,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>21.52426467247106</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35173,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,10 +35421,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35492,7 +35494,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
@@ -35501,13 +35503,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P12" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N14" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N14" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
@@ -35744,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>169.9067907798016</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>46.78797658628819</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37634,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>240.0046611659691</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,19 +37785,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38102,13 +38104,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N45" t="n">
-        <v>91.61977832229879</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>640585.3933669112</v>
+        <v>536352.8951034676</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443471</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>129.0037164986567</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,73 +895,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,52 +1147,52 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>9.211010870930394</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I8" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>66.38439726656334</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>19.09345814857096</v>
       </c>
       <c r="W9" t="n">
         <v>205.5178444382804</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1375,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>46.54968785507688</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>52.64939492479341</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,64 +1609,64 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="T14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>181.0201173812374</v>
-      </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>9.211010870930398</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>13.94347069460051</v>
+      </c>
+      <c r="W15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>14.48693373137006</v>
       </c>
       <c r="X15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1976,16 +1976,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>77.18032238670133</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2080,31 +2080,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>42.86570362720532</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2210,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,11 +2329,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,25 +2362,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>55.87092547359759</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>241.0142888776591</v>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2651,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>136.9303145005007</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>62.86349518004438</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2803,11 +2803,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2933,7 +2933,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2991,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,58 +3040,58 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>94.41048699370604</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>166.4340476206154</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>27.26454476027343</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3356,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>69.69067537112457</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3547,22 +3547,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>166.6004839263543</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,73 +3739,73 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="C41" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>186.3732331246961</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>161.5443926614383</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,11 +3976,11 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="C44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>171.0294181666926</v>
-      </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
@@ -4021,16 +4021,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>127.4978856749819</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>8.590354951141745</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D2" t="n">
         <v>16.44142755506243</v>
@@ -4333,19 +4333,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4357,7 +4357,7 @@
         <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>463.0946480769296</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T2" t="n">
         <v>463.0946480769296</v>
@@ -4366,16 +4366,16 @@
         <v>255.5008658160403</v>
       </c>
       <c r="V2" t="n">
-        <v>255.5008658160403</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="W2" t="n">
-        <v>255.5008658160403</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="X2" t="n">
         <v>47.90708355515102</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.4386961837225</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>305.9856669025954</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
         <v>16.44142755506243</v>
@@ -4412,22 +4412,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4436,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>648.6540332037905</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V3" t="n">
-        <v>648.6540332037905</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W3" t="n">
-        <v>648.6540332037905</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X3" t="n">
-        <v>648.6540332037905</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>648.6540332037905</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4506,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
         <v>16.44142755506243</v>
@@ -4570,19 +4570,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4594,25 +4594,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T5" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U5" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V5" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238.668476211275</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C6" t="n">
-        <v>64.21544693014803</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="F6" t="n">
         <v>16.44142755506243</v>
@@ -4649,22 +4649,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M6" t="n">
-        <v>163.1080096386462</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4679,19 +4679,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X6" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y6" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C8" t="n">
-        <v>614.4775954922324</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4775954922324</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E8" t="n">
-        <v>614.4775954922324</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F8" t="n">
-        <v>614.4775954922324</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G8" t="n">
-        <v>406.8838132313431</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4816,7 +4816,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="T8" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U8" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V8" t="n">
-        <v>614.4775954922324</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>406.8838132313431</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C9" t="n">
-        <v>232.4307839502161</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D9" t="n">
-        <v>83.4963742889648</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4913,22 +4913,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>600.5984617496947</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>393.0046794888054</v>
       </c>
       <c r="X9" t="n">
-        <v>406.8838132313431</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="Y9" t="n">
-        <v>406.8838132313431</v>
+        <v>185.4108972279162</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
         <v>16.44142755506243</v>
@@ -5053,7 +5053,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W11" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>660.5968149695918</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>238.668476211275</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C12" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5129,13 +5129,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O12" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5150,22 +5150,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="Y12" t="n">
-        <v>406.8838132313431</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>431.628992076841</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="C14" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D14" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E14" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5287,7 +5287,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5299,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>639.2227743377304</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U14" t="n">
-        <v>639.2227743377304</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V14" t="n">
-        <v>639.2227743377304</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="W14" t="n">
-        <v>639.2227743377304</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="X14" t="n">
-        <v>639.2227743377304</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="Y14" t="n">
-        <v>431.628992076841</v>
+        <v>28.51141680214578</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O15" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>809.472903150106</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5384,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U15" t="n">
-        <v>614.4775954922324</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V15" t="n">
-        <v>614.4775954922324</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="W15" t="n">
-        <v>599.8443290969091</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="X15" t="n">
-        <v>392.2505468360198</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y15" t="n">
-        <v>184.6567645751305</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5454,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5542,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5600,19 +5600,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>886.0972339079076</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>657.8736156442967</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>422.721507412554</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="19">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C20" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D20" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E20" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>587.9903182850353</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>413.5372890039083</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>413.5372890039083</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>413.5372890039083</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>267.0027310307933</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5840,16 +5840,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X21" t="n">
-        <v>756.2056553051034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y21" t="n">
-        <v>756.2056553051034</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5940,10 +5940,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>694.6722890434539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>520.2192597623269</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>520.2192597623269</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>360.9818047568714</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>214.4472467837564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>75.71642136637192</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6074,46 +6074,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>862.8876260635219</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
         <v>19.28114311021272</v>
@@ -6165,34 +6165,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>382.9414955037181</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>382.9414955037181</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>382.9414955037181</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>551.1568325237861</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>551.1568325237861</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>551.1568325237861</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>551.1568325237861</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>551.1568325237861</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y27" t="n">
-        <v>551.1568325237861</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6417,19 +6417,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>559.1338160830064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V29" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,13 +6548,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
         <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>125.0774898247174</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W30" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
         <v>19.28114311021272</v>
@@ -6639,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>601.5428246748836</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C32" t="n">
-        <v>601.5428246748836</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D32" t="n">
-        <v>601.5428246748836</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E32" t="n">
-        <v>601.5428246748836</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F32" t="n">
-        <v>358.0940480307835</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G32" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>601.5428246748836</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>601.5428246748836</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V32" t="n">
-        <v>601.5428246748836</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W32" t="n">
-        <v>601.5428246748836</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X32" t="n">
-        <v>601.5428246748836</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y32" t="n">
-        <v>601.5428246748836</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>109.5807722530562</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C33" t="n">
-        <v>109.5807722530562</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D33" t="n">
-        <v>109.5807722530562</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E33" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,16 +6788,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>795.941955893853</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>560.7898476621102</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>317.3410710180102</v>
+        <v>763.0998667590087</v>
       </c>
       <c r="X33" t="n">
-        <v>317.3410710180102</v>
+        <v>555.2483665534759</v>
       </c>
       <c r="Y33" t="n">
-        <v>109.5807722530562</v>
+        <v>347.488067788522</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V35" t="n">
-        <v>477.1596022224361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7108255783361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>180.7295264928365</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>180.7295264928365</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7022,16 +7022,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>327.2640844659515</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>327.2640844659515</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>327.2640844659515</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U38" t="n">
-        <v>485.167420504237</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V38" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>352.9716273967953</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>521.1869644168632</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U39" t="n">
-        <v>521.1869644168632</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V39" t="n">
-        <v>521.1869644168632</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W39" t="n">
-        <v>521.1869644168632</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X39" t="n">
-        <v>521.1869644168632</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y39" t="n">
-        <v>521.1869644168632</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7362,13 +7362,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7420,13 +7420,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7450,7 +7450,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X41" t="n">
         <v>614.4775954922324</v>
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>350.131911841645</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E42" t="n">
         <v>16.44142755506243</v>
@@ -7499,43 +7499,43 @@
         <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T42" t="n">
-        <v>619.8847831118876</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U42" t="n">
-        <v>431.628992076841</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V42" t="n">
-        <v>431.628992076841</v>
+        <v>557.7256941025342</v>
       </c>
       <c r="W42" t="n">
-        <v>431.628992076841</v>
+        <v>557.7256941025342</v>
       </c>
       <c r="X42" t="n">
-        <v>224.0352098159517</v>
+        <v>350.131911841645</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.44142755506243</v>
+        <v>350.131911841645</v>
       </c>
     </row>
     <row r="43">
@@ -7605,7 +7605,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
         <v>16.44142755506243</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X44" t="n">
-        <v>604.3859801240053</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.792197863116</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25.87268642112264</v>
+        <v>693.2856346470793</v>
       </c>
       <c r="C45" t="n">
-        <v>25.87268642112264</v>
+        <v>518.8326053659523</v>
       </c>
       <c r="D45" t="n">
-        <v>25.87268642112264</v>
+        <v>518.8326053659523</v>
       </c>
       <c r="E45" t="n">
-        <v>25.87268642112264</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="F45" t="n">
-        <v>25.87268642112264</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G45" t="n">
-        <v>25.87268642112264</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I45" t="n">
         <v>17.19556020784815</v>
@@ -7730,13 +7730,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
         <v>435.9652341458732</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W45" t="n">
-        <v>233.4664686820119</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X45" t="n">
-        <v>233.4664686820119</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y45" t="n">
-        <v>25.87268642112264</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="46">
@@ -7981,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -7996,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>344.0722242181546</v>
@@ -8069,7 +8069,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>279.489774794024</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>401.9436843039723</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
         <v>336.8595565216137</v>
@@ -8312,10 +8312,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8464,10 +8464,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8701,10 +8701,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8777,16 +8777,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>143.091025904242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8935,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,7 +9488,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,7 +9722,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9731,13 +9731,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>360.302996258564</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10196,16 +10196,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O33" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,19 +10670,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>185.8815939223662</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11068,16 +11068,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11147,19 +11147,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -22552,7 +22552,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>323.5320421805953</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
         <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>355.0869392159659</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>18.44134906598205</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22676,22 +22676,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22731,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,19 +22746,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22801,7 +22801,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22834,10 +22834,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22862,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>100.148786383304</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>136.7575940004622</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22968,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>199.809058715315</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>91.2606831888376</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,13 +23153,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>213.7071290008543</v>
       </c>
       <c r="W9" t="n">
         <v>46.1771387226392</v>
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,16 +23220,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23263,13 +23263,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>333.52274139514</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23357,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>42.84694499633819</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23402,10 +23402,10 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>153.1235902786841</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23475,7 +23475,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>42.075732182894</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>318.5412475992045</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>218.8571164548248</v>
       </c>
       <c r="W15" t="n">
-        <v>237.2080494295496</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>210.8693737747013</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23813,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,16 +23864,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>122.9844063081203</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23968,31 +23968,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24028,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24059,16 +24059,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>94.47781353600531</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,19 +24098,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>142.630753465213</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>274.8839540329311</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>56.36451876289887</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24341,19 +24341,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>101.1175644243641</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24405,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>262.9346646783187</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24505,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>145.2236497783945</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24539,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>63.23441419432095</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>345.7616595229185</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24764,7 +24764,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>12.77749687517976</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24879,13 +24879,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H32" t="n">
-        <v>245.0643151220611</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24964,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24979,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25004,7 +25004,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25016,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,22 +25046,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>59.50733446035943</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>224.4304384006462</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25162,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>281.5507331196406</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25244,19 +25244,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>42.54476886537189</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>161.7172443298368</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25435,22 +25435,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>33.56424476846735</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>201.7137242822432</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>200.9102526910243</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25690,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25709,13 +25709,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>39.56814895627872</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>71.25619448798696</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25775,7 +25775,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25845,10 +25845,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>351.5828422233929</v>
       </c>
       <c r="C44" t="n">
-        <v>194.2434736043149</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25909,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>39.03529797488544</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>103.6450892853547</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26003,16 +26003,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>441772.4113048551</v>
+        <v>441772.411304855</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>441772.4113048551</v>
+        <v>441772.411304855</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>441772.4113048553</v>
+        <v>441772.411304855</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441772.4113048553</v>
+        <v>441772.4113048551</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465309.4280328029</v>
+        <v>465309.4280328028</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465309.4280328029</v>
+        <v>465309.4280328026</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>465309.4280328028</v>
+        <v>465309.4280328029</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>465309.4280328028</v>
+        <v>465309.4280328027</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>465309.4280328028</v>
+        <v>465309.4280328026</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>441772.4113048552</v>
+        <v>441772.4113048551</v>
       </c>
     </row>
     <row r="16">
@@ -26352,7 +26352,7 @@
         <v>124620.5043984993</v>
       </c>
       <c r="O2" t="n">
-        <v>118318.2313761987</v>
+        <v>118318.2313761986</v>
       </c>
       <c r="P2" t="n">
         <v>118318.2313761987</v>
@@ -26420,19 +26420,19 @@
         <v>8092.707817725995</v>
       </c>
       <c r="C4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="D4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="E4" t="n">
         <v>8092.707817725995</v>
       </c>
       <c r="F4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4771.317965064598</v>
+        <v>-17409.48011992506</v>
       </c>
       <c r="C6" t="n">
-        <v>64102.43861662527</v>
+        <v>51464.27646176474</v>
       </c>
       <c r="D6" t="n">
-        <v>64102.43861662529</v>
+        <v>51464.27646176471</v>
       </c>
       <c r="E6" t="n">
-        <v>97730.03861662526</v>
+        <v>85091.87646176474</v>
       </c>
       <c r="F6" t="n">
-        <v>97730.03861662527</v>
+        <v>85091.87646176474</v>
       </c>
       <c r="G6" t="n">
-        <v>91690.68159122813</v>
+        <v>79472.67097118763</v>
       </c>
       <c r="H6" t="n">
-        <v>101419.7245653952</v>
+        <v>89201.71394535473</v>
       </c>
       <c r="I6" t="n">
-        <v>101419.7245653952</v>
+        <v>89201.71394535474</v>
       </c>
       <c r="J6" t="n">
-        <v>47647.21367518579</v>
+        <v>35429.20305514535</v>
       </c>
       <c r="K6" t="n">
-        <v>101419.7245653952</v>
+        <v>89201.71394535473</v>
       </c>
       <c r="L6" t="n">
-        <v>101419.7245653952</v>
+        <v>89201.71394535477</v>
       </c>
       <c r="M6" t="n">
-        <v>101419.7245653952</v>
+        <v>89201.71394535476</v>
       </c>
       <c r="N6" t="n">
-        <v>101419.7245653952</v>
+        <v>89201.71394535476</v>
       </c>
       <c r="O6" t="n">
-        <v>97730.03861662529</v>
+        <v>85091.8764617647</v>
       </c>
       <c r="P6" t="n">
-        <v>97730.03861662529</v>
+        <v>85091.87646176475</v>
       </c>
     </row>
   </sheetData>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34716,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>205.5178444382804</v>
@@ -34789,7 +34789,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>148.1480627106907</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>171.5974510766996</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -34953,7 +34953,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
         <v>205.5178444382804</v>
@@ -35032,10 +35032,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35184,10 +35184,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35421,10 +35421,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35497,16 +35497,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>0.494781459797586</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35655,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N14" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36451,13 +36451,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>217.7067518141195</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37156,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37636,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N41" t="n">
-        <v>171.5974510766996</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
